--- a/dados/Rodadas.xlsx
+++ b/dados/Rodadas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1973,15 +1973,215 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>0 - 0</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Empate</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Sport</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2 - 1</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>4 - 2</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Ceará</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Vitória</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>1 - 0</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Ceará</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Botafogo</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>1 - 0</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Vasco da Gama</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>0 - 1</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Grêmio</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>1 - 0</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Grêmio</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Cruzeiro</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Flamengo</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2 - 1</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Cruzeiro</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Bragantino</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Mirassol</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
           <t xml:space="preserve"> - </t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t xml:space="preserve">  -  </t>
         </is>
       </c>
-      <c r="E62" t="n">
+      <c r="E70" t="n">
         <v>7</v>
       </c>
     </row>

--- a/dados/Rodadas.xlsx
+++ b/dados/Rodadas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2173,15 +2173,40 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - </t>
+          <t>1 - 0</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t xml:space="preserve">  -  </t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="E70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Juventude</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Atlético Mineiro</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>0 - 1</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Mineiro</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
         <v>7</v>
       </c>
     </row>
